--- a/Report backlog_and_teamsheet.xlsx
+++ b/Report backlog_and_teamsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yikanwang/Documents/Spring2021/SSW555/SSW-555-A-Project-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7597D-27A0-4BB3-A1F3-ED2F802F422B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3F63DF-DFF2-C549-8C8D-040A2B0848FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="460" windowWidth="20480" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -437,10 +446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,11 +563,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -575,10 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,13 +1038,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1148,14 +1157,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1274,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1357,18 +1366,18 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="12.5703125" style="8"/>
+    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="12.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1">
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>113</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>44259</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>44273</v>
       </c>
@@ -1433,24 +1442,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1475,11 +1484,11 @@
       <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1504,23 +1513,23 @@
       <c r="H2">
         <v>70</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="K3" s="19" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1530,13 +1539,13 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1546,13 +1555,13 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1562,16 +1571,16 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1593,23 +1602,23 @@
       <c r="G8">
         <v>24</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="K9" s="14" t="s">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K9" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1622,13 +1631,13 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1650,14 +1659,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="K13" s="15" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1682,17 +1691,17 @@
       <c r="H14">
         <v>50</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="18">
         <f>SUM(H:H)</f>
-        <v>180</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="16" spans="1:13">
+        <v>230</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1745,11 +1754,11 @@
       <c r="H19">
         <v>60</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="15">
         <v>44258</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -1797,7 +1806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -1816,8 +1825,17 @@
       <c r="F24">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G24">
+        <v>42</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24" s="15">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1856,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1847,7 +1865,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -1864,7 +1882,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -1881,7 +1899,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
@@ -1896,7 +1914,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1905,7 +1923,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1935,7 +1953,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -1950,7 +1968,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -1965,7 +1983,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +1998,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>98</v>
       </c>
@@ -2000,7 +2018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>106</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2031,7 +2049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>106</v>
       </c>

--- a/Report backlog_and_teamsheet.xlsx
+++ b/Report backlog_and_teamsheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yikanwang/Documents/Spring2021/SSW555/SSW-555-A-Project-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubrey/PycharmProjects/SSW-555-A-Project-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3F63DF-DFF2-C549-8C8D-040A2B0848FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7D318-C3FF-154D-976B-A95A30A01520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="460" windowWidth="20480" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Burndown" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -439,6 +440,158 @@
   </si>
   <si>
     <t>Our speed is slow but we are hopeful to complete all stories soon</t>
+  </si>
+  <si>
+    <t>Total Actual minutes spend on：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify that all dates are in the correct format</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store marriage date and divorce date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store birth date and death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect test results</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conflicting team assignments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March 31,2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not more than 9 months after their divorce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare children's birth date and parents's marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold team meetings on time, exchange code, fix bugs, and plan for the next step.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store parents's marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store children's birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The final work of Sprint1 has been completed, and the code of Sprint2 user stories is being written and tested.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Review Results</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">		</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -446,14 +599,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -465,7 +618,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,14 +632,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -494,14 +647,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0066CC"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -515,7 +668,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -523,6 +676,31 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -547,7 +725,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -563,15 +741,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -588,11 +766,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -610,7 +800,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -632,7 +822,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
                 <c:ptCount val="6"/>
@@ -642,12 +832,18 @@
                 <c:pt idx="1">
                   <c:v>44273</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44286</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -656,6 +852,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,13 +932,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>948267</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
@@ -1038,13 +1240,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1078,7 +1280,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1129,7 +1331,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1151,20 +1353,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1198,7 +1400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1215,7 +1417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1232,7 +1434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1249,7 +1451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1266,7 +1468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1283,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1300,7 +1502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1317,7 +1519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1334,7 +1536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1349,6 +1551,40 @@
       </c>
       <c r="E11" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1360,78 +1596,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEA54D-8B1B-4FEB-853D-AFC0FFCF51CD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="12.5" style="8"/>
+    <col min="1" max="1" width="12.5" style="8"/>
+    <col min="2" max="2" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="12.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="13">
         <v>44259</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8">
         <v>42</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+    <row r="3" spans="1:7">
+      <c r="B3" s="13">
         <v>44273</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8">
         <v>38</v>
       </c>
-      <c r="C3" s="8">
-        <f>B2-B3</f>
+      <c r="D3" s="8">
+        <f>C2-C3</f>
         <v>4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <f>295+35</f>
         <v>330</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>180</v>
       </c>
-      <c r="F3" s="9">
-        <f>(D3-D2)/E3*60</f>
+      <c r="G3" s="9">
+        <f>(E3-E2)/F3*60</f>
         <v>110</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="27">
+        <v>44277</v>
+      </c>
+      <c r="C4" s="8">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>390</v>
+      </c>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9">
+        <f>(E4-E3)/F4*60</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="13">
+        <v>44286</v>
+      </c>
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -1440,13 +1719,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -1459,7 +1738,7 @@
     <col min="13" max="13" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="18.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,7 +1767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1522,14 +1801,14 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="K3" s="21" t="s">
         <v>116</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1545,7 +1824,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1561,7 +1840,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1575,12 +1854,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1611,14 +1890,14 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="K9" s="16" t="s">
         <v>104</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="16">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1637,7 +1916,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1648,7 +1927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1659,14 +1938,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="K13" s="17" t="s">
         <v>114</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1701,7 +1980,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1715,7 +1994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1729,7 +2008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1758,7 +2037,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1772,7 +2051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1786,7 +2065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1806,7 +2085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +2114,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +2135,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1865,7 +2144,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -1882,7 +2161,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -1899,7 +2178,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
@@ -1914,7 +2193,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1923,7 +2202,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +2223,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1953,7 +2232,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -1968,7 +2247,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>91</v>
       </c>
@@ -1983,7 +2262,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -1997,68 +2276,6 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-      <c r="F40">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-      <c r="F45">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2078,4 +2295,337 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481DEDB-4C58-7441-A282-5807B9B53AF9}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="K3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="K8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="K10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report backlog_and_teamsheet.xlsx
+++ b/Report backlog_and_teamsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubrey/PycharmProjects/SSW-555-A-Project-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7D318-C3FF-154D-976B-A95A30A01520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBC3DA-D645-464B-82EB-E112F7C0A511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="177">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -385,9 +385,6 @@
     <t xml:space="preserve">List all living married people </t>
   </si>
   <si>
-    <t>plan</t>
-  </si>
-  <si>
     <t>US15</t>
   </si>
   <si>
@@ -450,26 +447,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T09.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>store marriage date and divorce date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T09.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>store birth date and death date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T09.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Incorrect test results</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -483,10 +468,6 @@
   </si>
   <si>
     <t>Reject illegitimate dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -593,6 +574,114 @@
     <t>US42</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;=5</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>US04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>hyl</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>hyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>YKW</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first name in families</t>
+  </si>
+  <si>
+    <t>Mar31，2021</t>
+  </si>
+  <si>
+    <t>Mar31,2021</t>
+  </si>
+  <si>
+    <t>Unique  ids</t>
+  </si>
+  <si>
+    <t>unique birthday</t>
+  </si>
+  <si>
+    <t>T42.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T42.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T42.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +691,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +791,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -725,7 +822,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -750,6 +847,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -768,16 +870,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
@@ -1353,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1520,71 +1619,242 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="16" customFormat="1"/>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="29">
+        <v>3</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29">
+        <v>3</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1869,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13"/>
@@ -1616,30 +1886,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="13">
         <v>44259</v>
@@ -1675,7 +1945,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="27">
+      <c r="B4" s="18">
         <v>44277</v>
       </c>
       <c r="C4" s="8">
@@ -1697,7 +1967,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B7" s="13">
         <v>44286</v>
@@ -1707,6 +1977,16 @@
       </c>
       <c r="D7" s="8">
         <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>475</v>
+      </c>
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9">
+        <f>(E7-E4)/F7*60</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1795,18 +2075,18 @@
       <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="K3" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="K3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -1818,11 +2098,11 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
@@ -1834,11 +2114,11 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="K5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="16">
       <c r="A6" t="s">
@@ -1850,14 +2130,14 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -1884,18 +2164,18 @@
       <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="K9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="K9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="16">
       <c r="A10" t="s">
@@ -1910,11 +2190,11 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="K10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="16">
       <c r="A11" t="s">
@@ -1939,11 +2219,11 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="K13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" t="s">
@@ -1973,19 +2253,19 @@
       <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="21">
         <f>SUM(H:H)</f>
         <v>230</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="16">
       <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -2299,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481DEDB-4C58-7441-A282-5807B9B53AF9}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2313,40 +2593,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2367,68 +2647,68 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="K3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="K3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="K4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="K5" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -2436,31 +2716,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="K8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="K8" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -2481,33 +2761,33 @@
         <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="K10" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+      <c r="K10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -2515,10 +2795,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -2526,91 +2806,222 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="K13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
+        <v>30</v>
+      </c>
+      <c r="F15" s="16">
+        <v>70</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16">
+        <v>45</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="B20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="16">
+        <v>25</v>
+      </c>
+      <c r="F20" s="16">
+        <v>80</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16">
+        <v>55</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="16">
+        <v>25</v>
+      </c>
+      <c r="F24" s="16">
+        <v>35</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="16">
+        <v>25</v>
+      </c>
+      <c r="F25" s="16">
+        <v>35</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Report backlog_and_teamsheet.xlsx
+++ b/Report backlog_and_teamsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubrey/PycharmProjects/SSW-555-A-Project-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBC3DA-D645-464B-82EB-E112F7C0A511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED6CDF7-25D3-3F41-B774-D0DDB4821A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Burndown" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint1" sheetId="5" r:id="rId4"/>
     <sheet name="Sprint2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint3" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="190">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -551,10 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -680,6 +677,62 @@
   </si>
   <si>
     <t>T42.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18,01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find all the kids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find which are siblings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T38.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T38.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List recent births</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all people</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all people in a GEDCOM file who were born in the last 30 days</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +875,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -852,6 +905,9 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -876,7 +932,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
@@ -1032,15 +1087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>948267</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:colOff>684497</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:colOff>134164</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1452,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1623,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>152</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>88</v>
@@ -1640,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>154</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>88</v>
@@ -1695,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -1709,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
         <v>123</v>
@@ -1726,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1743,10 +1798,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -1760,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -1777,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1794,13 +1849,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>88</v>
@@ -1811,50 +1866,84 @@
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29">
+      <c r="A24" s="20">
         <v>3</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="E24" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="20">
+        <v>3</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="C25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="29">
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>83</v>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEA54D-8B1B-4FEB-853D-AFC0FFCF51CD}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -1886,7 +1975,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>112</v>
@@ -1909,7 +1998,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="13">
         <v>44259</v>
@@ -1967,7 +2056,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="13">
         <v>44286</v>
@@ -1987,6 +2076,20 @@
       <c r="G7" s="9">
         <f>(E7-E4)/F7*60</f>
         <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="13">
+        <v>44299</v>
+      </c>
+      <c r="C10" s="8">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2075,18 +2178,18 @@
       <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -2098,11 +2201,11 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
@@ -2114,11 +2217,11 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="16">
       <c r="A6" t="s">
@@ -2130,14 +2233,14 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -2164,18 +2267,18 @@
       <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="16">
       <c r="A10" t="s">
@@ -2190,11 +2293,11 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="16">
       <c r="A11" t="s">
@@ -2219,11 +2322,11 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" t="s">
@@ -2253,12 +2356,12 @@
       <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="24">
         <f>SUM(H:H)</f>
         <v>230</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="16">
       <c r="A16" t="s">
@@ -2581,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481DEDB-4C58-7441-A282-5807B9B53AF9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2594,7 +2697,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="17" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>17</v>
@@ -2649,21 +2752,21 @@
       <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -2675,14 +2778,14 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -2694,14 +2797,14 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -2726,18 +2829,18 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -2763,28 +2866,28 @@
       <c r="I9" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -2795,7 +2898,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -2806,7 +2909,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -2814,22 +2917,22 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
@@ -2855,7 +2958,7 @@
         <v>45</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2932,7 +3035,7 @@
         <v>55</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2976,13 +3079,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>68</v>
@@ -2996,18 +3099,18 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>68</v>
@@ -3021,7 +3124,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3039,4 +3142,166 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEB31C5-8FAF-D54E-8C1E-527269570479}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2" s="21">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9" s="21">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report backlog_and_teamsheet.xlsx
+++ b/Report backlog_and_teamsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubrey/PycharmProjects/SSW-555-A-Project-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasir\Desktop\september\python-assignment\github\Project3\SSW-555-A-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED6CDF7-25D3-3F41-B774-D0DDB4821A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7048B5C0-EF60-4AEA-875C-EC070867524F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="201">
   <si>
     <t>Initials</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -535,7 +526,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -735,20 +726,53 @@
     <t xml:space="preserve"> List all people in a GEDCOM file who were born in the last 30 days</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age difference</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all people in a GEDCOM file who are spouses with large age difference</t>
+  </si>
+  <si>
+    <t>T34.01</t>
+  </si>
+  <si>
+    <t>T34.02</t>
+  </si>
+  <si>
+    <t>marriage before divorce</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all people in a GEDCOM file with marriage before divorce</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -760,7 +784,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -774,14 +798,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -789,14 +813,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0066CC"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -810,7 +834,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -830,7 +854,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -839,7 +863,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -847,7 +871,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -875,7 +899,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -891,23 +915,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -934,9 +959,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0806C502-5B25-4AE5-A7E3-7A9818F2DFE2}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,7 +979,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1394,10 +1419,10 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1507,17 +1532,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C06F4B-E189-4612-9398-61FC56C851BF}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1944,6 +1969,40 @@
       </c>
       <c r="E27" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="22">
+        <v>3</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1961,16 +2020,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="8"/>
-    <col min="2" max="2" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="8"/>
+    <col min="2" max="2" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="12.5" style="8"/>
+    <col min="4" max="4" width="14.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="12.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1">
@@ -2104,24 +2163,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423B761-4644-4B14-9E93-F056AD5F843E}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.83203125" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" customHeight="1">
+    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2178,18 +2237,18 @@
       <c r="I2" s="15">
         <v>44272</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -2201,11 +2260,11 @@
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" t="s">
@@ -2217,13 +2276,13 @@
       <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="16">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2233,14 +2292,14 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -2267,20 +2326,20 @@
       <c r="I8" s="15">
         <v>44272</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" ht="16">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2293,13 +2352,13 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" ht="16">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2310,7 +2369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2322,13 +2381,13 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="16">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2356,14 +2415,14 @@
       <c r="I14" s="15">
         <v>44258</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="25">
         <f>SUM(H:H)</f>
         <v>230</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="16">
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2684,15 +2743,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481DEDB-4C58-7441-A282-5807B9B53AF9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2752,21 +2811,21 @@
       <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -2778,14 +2837,14 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -2797,14 +2856,14 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -2829,14 +2888,14 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -2866,24 +2925,24 @@
       <c r="I9" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -2917,22 +2976,22 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
@@ -2945,7 +3004,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E15" s="16">
         <v>30</v>
@@ -3022,7 +3081,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E20" s="16">
         <v>25</v>
@@ -3146,16 +3205,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEB31C5-8FAF-D54E-8C1E-527269570479}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="53.5" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3300,6 +3359,154 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="22">
+        <v>100</v>
+      </c>
+      <c r="F14" s="22">
+        <v>120</v>
+      </c>
+      <c r="G14" s="22">
+        <v>20</v>
+      </c>
+      <c r="H14" s="22">
+        <v>100</v>
+      </c>
+      <c r="I14" s="21">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="22">
+        <v>100</v>
+      </c>
+      <c r="F19" s="22">
+        <v>120</v>
+      </c>
+      <c r="G19" s="22">
+        <v>40</v>
+      </c>
+      <c r="H19" s="22">
+        <v>90</v>
+      </c>
+      <c r="I19" s="21">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
